--- a/Person/吴晓岛/用户故事（高校畅游通App）.xlsx
+++ b/Person/吴晓岛/用户故事（高校畅游通App）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14197\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14197\Documents\GitHub\software-engineering\Person\吴晓岛\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{297BB5F7-F80C-46D0-84DF-37F2679C44B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148D73D2-EFFD-4A79-B025-A848FC80F704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D6EDFDD-49CF-48CE-9CC0-8ADB1145A27B}"/>
   </bookViews>
@@ -141,11 +141,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>估计花费时间（h）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>理想时间（h）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始时间（h）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -540,7 +540,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -562,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
